--- a/medicine/Mort/Décès_en_1967/Décès_en_1967.xlsx
+++ b/medicine/Mort/Décès_en_1967/Décès_en_1967.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1967</t>
+          <t>Décès_en_1967</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1967</t>
+          <t>Décès_en_1967</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,8 +540,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Inconnu
-Roland Chavenon, peintre et critique d'art français (° 19 décembre 1895).
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Roland Chavenon, peintre et critique d'art français (° 19 décembre 1895).
 Jean Didier-Tourné, peintre, graveur, lithographe, illustrateur, décorateur et fresquiste français (° 1882).
 Pierre Arthur Foäche, peintre et affichiste français (° 1871).
 Jean Lambert-Rucki, peintre et sculpteur d'origine polonaise, naturalisé français (° 17 septembre 1888).
@@ -537,9 +554,43 @@
 Mela Muter, peintre française d'origine polonaise (° 26 avril 1876).
 Gino Romiti, peintre italien (° 5 mai 1881).
 Gustave Rossi, footballeur franco-italien (° 1925).
-Guido Tallone, peintre italien (° 1894).
-Janvier
-1er janvier : Shi Nenghai, moine bouddhiste chinois (° 20 janvier 1886).
+Guido Tallone, peintre italien (° 1894).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1967</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1967</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1er janvier : Shi Nenghai, moine bouddhiste chinois (° 20 janvier 1886).
 2 janvier : Antoine Rodriguez, footballeur et coureur cycliste espagnol naturalisé français (° 10 janvier 1918).
 3 janvier : Olga Milles, peintre autrichienne puis suédoise (° 24 janvier 1874).
 4 janvier : Mohamed Khider, membre fondateur du FLN (° 13 mars 1912).
@@ -559,9 +610,43 @@
 Virgil Grissom, astronaute américain (° 3 avril 1926).
 Edward White, astronaute américain (° 14 novembre 1930).
 28 janvier : Tora Vega Holmström, peintre suédoise (° 2 mars 1880).
-29 janvier : Jean Larcena, poète et aquarelliste français (° 10 mars 1901).
-Février
-1er février :
+29 janvier : Jean Larcena, poète et aquarelliste français (° 10 mars 1901).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1967</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1967</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1er février :
 Émile Beaume, peintre français (° 28 avril 1888).
 Guillaume Desgranges, peintre et lithographe français (° 10 février 1886).
 2 février : Eugène Péchaubès, peintre animalier français (° 24 juin 1890).
@@ -578,9 +663,43 @@
 Robert Oppenheimer, physicien américain (° 22 avril 1904).
 Manuel Palau, compositeur espagnol et professeur au Conservatoire de Valence (° 4 janvier 1893).
 26 février : Octacílio Pinheiro Guerra, footballeur brésilien (° 21 novembre 1909).
-? février : Gabriel Lalloué, footballeur français (° 1er janvier 1908).
-Mars
-3 mars : Georges Lonque, compositeur belge (° 8 novembre 1900).
+? février : Gabriel Lalloué, footballeur français (° 1er janvier 1908).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1967</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1967</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>3 mars : Georges Lonque, compositeur belge (° 8 novembre 1900).
 4 mars :
 Henry E. Burel, peintre, poète et illustrateur français (° 8 juin 1883).
 Edmond Heuzé, peintre, dessinateur, graveur, illustrateur et écrivain français (° 26 septembre 1883).
@@ -596,9 +715,43 @@
 25 mars : Johannes Itten, peintre suisse (° 11 novembre 1888).
 31 mars :
 Don Alvarado, acteur, assistant-réalisateur et directeur de production américain (° 4 novembre 1904).
-Paul Adrien Bouroux, peintre, illustrateur et graveur français (° 14 juin 1878).
-Avril
-1 avril : Jan van Dort, footballeur international néerlandais (° 25 mai 1889).
+Paul Adrien Bouroux, peintre, illustrateur et graveur français (° 14 juin 1878).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1967</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1967</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1 avril : Jan van Dort, footballeur international néerlandais (° 25 mai 1889).
 7 avril : Isa Jeynevald, cantatrice française (° 13 janvier 1886).
 10 avril : Jean-Claude Rolland, acteur français (° 31 août 1931).
 15 avril : Totò, acteur de cinéma et chanteur italien (° 15 février 1898).
@@ -608,9 +761,43 @@
 Vladimir Komarov, cosmonaute soviétique (°16 mars 1927).
 Ida Presti, guitariste],  française (° 31 mai 1924).
 26 avril : Pilar Jorge de Tella, féministe cubaine (° 24 août 1884).
-29 avril : Will Meisel, danseur, compositeur et éditeur allemand (° 17 septembre 1897).
-Mai
-11 mai : David Galula, militaire et théoricien français (° 1919).
+29 avril : Will Meisel, danseur, compositeur et éditeur allemand (° 17 septembre 1897).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1967</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1967</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>11 mai : David Galula, militaire et théoricien français (° 1919).
 13 mai : Frank McGrath, acteur américain (° 2 février 1903).
 15 mai :
 Edward Hopper, peintre et graveur américain (° 22 juillet 1882).
@@ -623,9 +810,43 @@
 27 mai : Paul Henckels, acteur allemand (° 9 septembre 1885).
 30 mai :
 Georg Wilhelm Pabst, cinéaste allemand (° 25 août 1885).
-Claude Rains, acteur britannique (° 10 novembre 1889).
-Juin
-6 juin : Edward Givens, astronaute américain (° 5 janvier 1930).
+Claude Rains, acteur britannique (° 10 novembre 1889).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1967</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1967</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>6 juin : Edward Givens, astronaute américain (° 5 janvier 1930).
 7 juin : Dorothy Parker, écrivaine et scénariste américaine (° 22 août 1893).
 10 juin :
 Frank Butler, scénariste anglo-américain (° 28 décembre 1890).
@@ -642,9 +863,43 @@
 25 juin : Ernest Langrogne, ingénieur et chef d'entreprise français (° 24 janvier 1886).
 26 juin : Françoise Dorleac, actrice française (° 21 mars 1942).
 27 juin : Georgi Genov, avocat bulgare (° 15 mars 1885).
-29 juin : Jayne Mansfield, actrice américaine (° 19 avril 1933).
-Juillet
-1 juillet : Chen Xiaocui, poétesse, écrivaine et peintre chinoise.
+29 juin : Jayne Mansfield, actrice américaine (° 19 avril 1933).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1967</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1967</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1 juillet : Chen Xiaocui, poétesse, écrivaine et peintre chinoise.
 3 juillet : Rodolfo Irazusta, journaliste, essayiste et homme politique argentin (° 5 juin 1897).
 4 juillet : Ondřej Sekora, journaliste, illustrateur, écrivain et auteur de bande dessinée austro-hongrois puis tchécoslovaque (° 25 septembre 1899).
 5 juillet : Augustin Ringeval, coureur cycliste français (° 13 avril 1882).
@@ -667,9 +922,43 @@
 27 juillet : M.S. Buksh, figure de la vie politique coloniale fidjienne (° vers 1884).
 29 juillet : Robert Delcourt, écrivain et auteur dramatique belge (° 19 janvier 1902).
 30 juillet : Valentín Uriona, coureur cycliste espagnol (° 29 août 1940).
-31 juillet : Mários Várvoglis, compositeur grec (° 10 décembre 1885).
-Août
-2 août : Henryk Berlewi, peintre et dessinateur polonais (° 20 octobre 1894).
+31 juillet : Mários Várvoglis, compositeur grec (° 10 décembre 1885).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1967</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1967</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2 août : Henryk Berlewi, peintre et dessinateur polonais (° 20 octobre 1894).
 4 août : Gustave Samazeuilh, compositeur et critique musical français (° 2 juin 1877).
 9 août : Rudolf Vogel, acteur allemand (° 10 novembre 1900).
 15 août : René Magritte, peintre belge (° 21 novembre 1898).
@@ -683,9 +972,43 @@
 23  août : Georges Holvoet, avocat, diplomate et homme politique belge (° 16 août 1874).
 25 août : Stanley Bruce, homme d'État britannique puis australien (° 15 avril 1883).
 30 août : Jean Deyrolle, peintre, illustrateur et lithographe français (° 20 août 1911).
-31 août : Juan Vitalio Acuña Núñez, militaire et homme politique cubain (° 17 janvier 1925).
-Septembre
-2 septembre : Philip Sainton, compositeur, altiste et chef d'orchestre anglais (° 10 novembre 1891).
+31 août : Juan Vitalio Acuña Núñez, militaire et homme politique cubain (° 17 janvier 1925).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1967</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1967</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2 septembre : Philip Sainton, compositeur, altiste et chef d'orchestre anglais (° 10 novembre 1891).
 13 septembre : André Declerck, coureur cycliste belge (° 27 août 1919).
 14 septembre : Abdel Hakim Amer, maréchal et homme politique égyptien (° 11 décembre 1919).
 18 septembre : John Cockcroft, physicien américain (° 27 mai 1897).
@@ -698,9 +1021,43 @@
 Adolphe Deteix, peintre français (° 7 juillet 1892).
 Paul Goubert, jésuite et historien français (° 15 juin 1901).
 25 septembre : Octave Denis Victor Guillonnet, peintre français (° 22 septembre 1872).
-29 septembre : Carson McCullers, écrivaine américaine (° 19 février 1917).
-Octobre
-1 octobre : Alexandre Vassilievitch Nemitz, militaire russe (° 26 juillet 1879).
+29 septembre : Carson McCullers, écrivaine américaine (° 19 février 1917).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1967</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1967</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1 octobre : Alexandre Vassilievitch Nemitz, militaire russe (° 26 juillet 1879).
 3 octobre :
 Woodie Guthrie, musicien américain (° 14 juillet 1912).
 Carlo Hemmerling, musicien, compositeur et chef de chœur suisse (° 9 novembre 1903).
@@ -723,9 +1080,43 @@
 Franz Bronstert, peintre et ingénieur allemand (° 18 février 1895).
 Julien Duvivier, cinéaste français (° 8 octobre 1896).
 31 octobre : Chicuelo (Manuel Jiménez Moreno), matador espagnol (° 15 avril 1902).
-? octobre : Yvette Alde, peintre, lithographe et illustratrice française (° 18 juin 1911).
-Novembre
-6 novembre :
+? octobre : Yvette Alde, peintre, lithographe et illustratrice française (° 18 juin 1911).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1967</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1967</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>6 novembre :
 Jean Dufay, astronome français, directeur des observatoires de Lyon et de Haute-Provence (° 18 juillet 1896).
 Joseph Pressmane, peintre et graveur français d'origine russe (° 22 juillet 1904).
 9 novembre :
@@ -736,9 +1127,43 @@
 21 novembre : Vladimir Vassilievitch Lebedev, peintre et graphiste russe puis soviétique (° 26 mai 1891).
 22 novembre : Pavel Korine, peintre russe puis soviétique (° 7 juillet 1892).
 25 novembre : Raoul Daufresne de La Chevalerie, sportif belge, principalement joueur et entraîneur de football, commandant en chef des Forces belges libres au Royaume-Uni (° 17 mars 1881).
-29 novembre : Jean Nussbaum, médecin franco-suisse (° 24 novembre 1888).
-Décembre
-2 décembre : Francis Spellman, cardinal américain (° 4 mai 1889).
+29 novembre : Jean Nussbaum, médecin franco-suisse (° 24 novembre 1888).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Décès_en_1967</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1967</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2 décembre : Francis Spellman, cardinal américain (° 4 mai 1889).
 8 décembre :
 Louis Bacon, trompettiste et chanteur de jazz américain (° 1er novembre 1904).
 Robert Henry Lawrence, Jr., aviateur américain (° 2 octobre 1935).
@@ -753,9 +1178,43 @@
 18 décembre : Francis Barry Byrne, architecte américain (° 19 décembre 1883).
 19 décembre : Alfred Courtens, sculpteur belge (° 27 juin 1889).
 25 décembre : Antoine Corriger, curé de Chaumontel (Val d'Oise), déclaré Juste parmi les nations (° 1884).
-31 décembre : Arthur Mailey, joueur de cricket australien (° 3 janvier 1886).
-Date inconnue
-Henri-Martin Lamotte, peintre français (° 1899).
+31 décembre : Arthur Mailey, joueur de cricket australien (° 3 janvier 1886).</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Décès_en_1967</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1967</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Date inconnue</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Henri-Martin Lamotte, peintre français (° 1899).
 Salluste Lavery, homme politique canadien (° 1888).</t>
         </is>
       </c>
